--- a/R/data/samopoczucie_projekt.xlsx
+++ b/R/data/samopoczucie_projekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Samopoczucie\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64189FFE-92E2-4F99-88BF-9785150F6863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F8DE1-4F7B-469D-A15C-DE6574BE499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{32936D95-126A-4658-8FFD-12918E10BC26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32936D95-126A-4658-8FFD-12918E10BC26}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712E70C7-95F7-45C3-91C5-A60B953352CB}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,18 +788,99 @@
       <c r="A26" s="1">
         <v>45623</v>
       </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4069</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B27">
+        <v>650</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5473</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6715</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8972</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2595</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B31">
+        <v>1500</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3974</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B32">
+        <v>950</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5187</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/samopoczucie_projekt.xlsx
+++ b/R/data/samopoczucie_projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Samopoczucie\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F8DE1-4F7B-469D-A15C-DE6574BE499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CBC3EF-B96A-4564-B1D4-212B967E7FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32936D95-126A-4658-8FFD-12918E10BC26}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712E70C7-95F7-45C3-91C5-A60B953352CB}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +882,510 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B33">
+        <v>1400</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7577</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B34">
+        <v>1400</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4023</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B35">
+        <v>750</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1871</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B36">
+        <v>700</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4684</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B37">
+        <v>750</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6332</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6711</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B39">
+        <v>1500</v>
+      </c>
+      <c r="C39" s="2">
+        <v>15510</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B40">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4982</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5754</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B42">
+        <v>500</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5317</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B43">
+        <v>700</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8412</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B44">
+        <v>700</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1744</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B45">
+        <v>500</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5549</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B46">
+        <v>2000</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10998</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B47">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6799</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B48">
+        <v>700</v>
+      </c>
+      <c r="C48" s="2">
+        <v>459</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B49">
+        <v>1500</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9743</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B50">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9291</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10751</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B52">
+        <v>750</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4028</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1583</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B54">
+        <v>500</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2686</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B55">
+        <v>750</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B56">
+        <v>1500</v>
+      </c>
+      <c r="C56" s="2">
+        <v>13451</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B57">
+        <v>700</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8867</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B58">
+        <v>700</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1969</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B59">
+        <v>1400</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4224</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B60">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3230</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B61">
+        <v>1500</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3332</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B62">
+        <v>1000</v>
+      </c>
+      <c r="C62" s="2">
+        <v>6405</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B63">
+        <v>500</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2051</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B64">
+        <v>500</v>
+      </c>
+      <c r="C64" s="2">
+        <v>7577</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4023</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1871</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B67">
+        <v>500</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3427</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B68">
+        <v>500</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1976</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
